--- a/FFT puissance.xlsx
+++ b/FFT puissance.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xingyu Shang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huojiaxi/Desktop/TER/ProjetFin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5523AD-EE5C-4064-AD0F-F650E2F86746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2536DA94-989A-DF4F-B027-F2EBC8EE4242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A94165E7-94E9-4347-8500-FFD985B0DF79}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="4" xr2:uid="{A94165E7-94E9-4347-8500-FFD985B0DF79}"/>
   </bookViews>
   <sheets>
     <sheet name="Lampe" sheetId="1" r:id="rId1"/>
     <sheet name="Ordinateur apple" sheetId="2" r:id="rId2"/>
     <sheet name="Ordi en train de charger" sheetId="3" r:id="rId3"/>
+    <sheet name="micronde" sheetId="4" r:id="rId4"/>
+    <sheet name="ecouteur" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
   <si>
     <t>FFT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +68,10 @@
     <t>Capacitive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Ampère efficace （A）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -74,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,17 +446,17 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="19.88671875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="19.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -470,7 +476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>50</v>
       </c>
@@ -493,7 +499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>150</v>
       </c>
@@ -501,7 +507,7 @@
         <v>17.004000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>250</v>
       </c>
@@ -509,7 +515,7 @@
         <v>15.13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>350</v>
       </c>
@@ -517,7 +523,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>450</v>
       </c>
@@ -525,7 +531,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>550</v>
       </c>
@@ -533,7 +539,7 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>650</v>
       </c>
@@ -541,7 +547,7 @@
         <v>10.45</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>750</v>
       </c>
@@ -549,7 +555,7 @@
         <v>10.14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>850</v>
       </c>
@@ -557,7 +563,7 @@
         <v>9.51</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>950</v>
       </c>
@@ -565,7 +571,7 @@
         <v>8.74</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>1050</v>
       </c>
@@ -573,7 +579,7 @@
         <v>7.69</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>1150</v>
       </c>
@@ -581,7 +587,7 @@
         <v>7.31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>1250</v>
       </c>
@@ -589,7 +595,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>1350</v>
       </c>
@@ -597,7 +603,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>1450</v>
       </c>
@@ -605,7 +611,7 @@
         <v>5.81</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>1550</v>
       </c>
@@ -628,20 +634,20 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -661,7 +667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>50</v>
       </c>
@@ -669,7 +675,7 @@
         <v>83.13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>150</v>
       </c>
@@ -677,7 +683,7 @@
         <v>78.13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>250</v>
       </c>
@@ -685,7 +691,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>350</v>
       </c>
@@ -693,7 +699,7 @@
         <v>64.38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>450</v>
       </c>
@@ -701,7 +707,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>550</v>
       </c>
@@ -709,7 +715,7 @@
         <v>48.75</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>650</v>
       </c>
@@ -717,7 +723,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>750</v>
       </c>
@@ -725,7 +731,7 @@
         <v>36.880000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>850</v>
       </c>
@@ -733,7 +739,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>950</v>
       </c>
@@ -741,7 +747,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>1050</v>
       </c>
@@ -749,7 +755,7 @@
         <v>21.88</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>1150</v>
       </c>
@@ -757,7 +763,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>1250</v>
       </c>
@@ -765,7 +771,7 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>1350</v>
       </c>
@@ -773,7 +779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>1450</v>
       </c>
@@ -781,7 +787,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>1550</v>
       </c>
@@ -789,7 +795,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>1650</v>
       </c>
@@ -797,17 +803,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>1750</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>1850</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>1950</v>
       </c>
@@ -822,23 +828,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57CF8D6-0128-4801-A4C9-291FC8D40B07}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -858,7 +864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>50</v>
       </c>
@@ -866,7 +872,7 @@
         <v>279.24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>150</v>
       </c>
@@ -874,7 +880,7 @@
         <v>85.8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>250</v>
       </c>
@@ -882,7 +888,7 @@
         <v>29.64</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>350</v>
       </c>
@@ -890,7 +896,7 @@
         <v>14.04</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>450</v>
       </c>
@@ -898,7 +904,7 @@
         <v>29.64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>550</v>
       </c>
@@ -906,7 +912,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>650</v>
       </c>
@@ -914,7 +920,7 @@
         <v>9.36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>750</v>
       </c>
@@ -922,7 +928,7 @@
         <v>7.51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>850</v>
       </c>
@@ -930,7 +936,7 @@
         <v>8.14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>950</v>
       </c>
@@ -938,7 +944,7 @@
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>1050</v>
       </c>
@@ -946,7 +952,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>1150</v>
       </c>
@@ -954,7 +960,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>1250</v>
       </c>
@@ -962,7 +968,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>1350</v>
       </c>
@@ -970,7 +976,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>1450</v>
       </c>
@@ -978,7 +984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>1550</v>
       </c>
@@ -986,24 +992,266 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>1650</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>1750</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>1850</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>1950</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3293159E-02E7-C045-8913-919024C4D320}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>150</v>
+      </c>
+      <c r="B4">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>250</v>
+      </c>
+      <c r="B5">
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>350</v>
+      </c>
+      <c r="B6">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>450</v>
+      </c>
+      <c r="B7">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>550</v>
+      </c>
+      <c r="B8">
+        <v>6.2399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>650</v>
+      </c>
+      <c r="B9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>750</v>
+      </c>
+      <c r="B10">
+        <v>4.3700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>850</v>
+      </c>
+      <c r="B11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F052A4-A44C-6744-A8E4-D3BA9F1D11CC}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>150</v>
+      </c>
+      <c r="B4" s="1">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>250</v>
+      </c>
+      <c r="B5" s="1">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>350</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>450</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>550</v>
+      </c>
+      <c r="B8">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>650</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>750</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>850</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>950</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>1050</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>1150</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
